--- a/state_results/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/state_results/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>

--- a/state_results/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/state_results/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="56">
   <si>
     <t>site name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Lake</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +627,13 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>12.5</v>
       </c>
       <c r="G2">
-        <v>21.4037155423994</v>
+        <v>21.403138699939</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -657,19 +660,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -686,13 +689,13 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>12.5</v>
       </c>
       <c r="G3">
-        <v>21.4037155423994</v>
+        <v>21.403138699939</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -719,19 +722,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -745,13 +748,13 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>0.00086</v>
+        <v>0.00043</v>
       </c>
       <c r="G4">
-        <v>0.0271785206559691</v>
+        <v>0.0270399648786382</v>
       </c>
       <c r="H4">
         <v>0.275</v>
@@ -760,7 +763,7 @@
         <v>0.20295</v>
       </c>
       <c r="L4">
-        <v>0.00059</v>
+        <v>0.00028</v>
       </c>
       <c r="M4">
         <v>0.0202</v>
@@ -778,19 +781,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -807,7 +810,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>0.87</v>
@@ -840,19 +843,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -869,7 +872,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>0.87</v>
@@ -902,19 +905,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -931,7 +934,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>0.0335</v>
@@ -964,19 +967,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -993,7 +996,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>0.0321</v>
@@ -1026,19 +1029,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1055,13 +1058,13 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>7.7</v>
       </c>
       <c r="G9">
-        <v>13.1844227624992</v>
+        <v>13.182836787407</v>
       </c>
       <c r="H9">
         <v>74</v>
@@ -1088,19 +1091,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1117,13 +1120,13 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>7.7</v>
       </c>
       <c r="G10">
-        <v>13.1844227624992</v>
+        <v>13.182836787407</v>
       </c>
       <c r="H10">
         <v>74</v>
@@ -1150,19 +1153,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1179,19 +1182,19 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <v>21.4077378957427</v>
+        <v>21.4193903880281</v>
       </c>
       <c r="H11">
-        <v>154</v>
+        <v>153.6</v>
       </c>
       <c r="I11">
-        <v>93.7</v>
+        <v>93.66</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1203,13 +1206,13 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>20.5</v>
+        <v>20.36</v>
       </c>
       <c r="N11">
-        <v>27.66</v>
+        <v>27.608</v>
       </c>
       <c r="O11">
-        <v>81.08</v>
+        <v>80.932</v>
       </c>
       <c r="P11">
         <v>1777675.54138</v>
@@ -1218,19 +1221,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1247,19 +1250,19 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>21.4077378957427</v>
+        <v>21.4193903880281</v>
       </c>
       <c r="H12">
-        <v>154</v>
+        <v>153.6</v>
       </c>
       <c r="I12">
-        <v>93.7</v>
+        <v>93.66</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1271,13 +1274,13 @@
         <v>6</v>
       </c>
       <c r="M12">
-        <v>20.5</v>
+        <v>20.36</v>
       </c>
       <c r="N12">
-        <v>27.66</v>
+        <v>27.608</v>
       </c>
       <c r="O12">
-        <v>81.08</v>
+        <v>80.932</v>
       </c>
       <c r="P12">
         <v>1777675.54138</v>
@@ -1286,19 +1289,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1315,19 +1318,19 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>21.4077378957427</v>
+        <v>21.4193903880281</v>
       </c>
       <c r="H13">
-        <v>154</v>
+        <v>153.6</v>
       </c>
       <c r="I13">
-        <v>93.7</v>
+        <v>93.66</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1339,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>20.5</v>
+        <v>20.36</v>
       </c>
       <c r="N13">
-        <v>27.66</v>
+        <v>27.608</v>
       </c>
       <c r="O13">
-        <v>81.08</v>
+        <v>80.932</v>
       </c>
       <c r="P13">
         <v>1777675.54138</v>
@@ -1354,19 +1357,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1383,19 +1386,19 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14">
-        <v>21.4077378957427</v>
+        <v>21.4193903880281</v>
       </c>
       <c r="H14">
-        <v>154</v>
+        <v>153.6</v>
       </c>
       <c r="I14">
-        <v>93.7</v>
+        <v>93.66</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1407,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="M14">
-        <v>20.5</v>
+        <v>20.36</v>
       </c>
       <c r="N14">
-        <v>27.66</v>
+        <v>27.608</v>
       </c>
       <c r="O14">
-        <v>81.08</v>
+        <v>80.932</v>
       </c>
       <c r="P14">
         <v>1777675.54138</v>
@@ -1422,19 +1425,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1451,7 +1454,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>0.01462</v>
@@ -1484,19 +1487,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>0.01462</v>
@@ -1546,19 +1549,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1572,13 +1575,13 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>0.0009700000000000001</v>
+        <v>0.0005</v>
       </c>
       <c r="G17">
-        <v>0.0357954899119314</v>
+        <v>0.0355654426270582</v>
       </c>
       <c r="H17">
         <v>0.275</v>
@@ -1587,7 +1590,7 @@
         <v>0.2444</v>
       </c>
       <c r="L17">
-        <v>0.0004</v>
+        <v>0.00016</v>
       </c>
       <c r="M17">
         <v>0.034</v>
@@ -1605,19 +1608,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1631,7 +1634,7 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>7.99</v>
@@ -1664,16 +1667,16 @@
         <v>5573253.04125</v>
       </c>
       <c r="R18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1690,7 +1693,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>0.865</v>
@@ -1723,19 +1726,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1752,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>0.865</v>
@@ -1785,19 +1788,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1814,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0.032</v>
@@ -1847,19 +1850,902 @@
         <v>5573253.04125</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>0.0335</v>
+      </c>
+      <c r="G22">
+        <v>0.341538235294118</v>
+      </c>
+      <c r="H22">
+        <v>4.5481</v>
+      </c>
+      <c r="I22">
+        <v>2.0017</v>
+      </c>
+      <c r="L22">
+        <v>0.05995</v>
+      </c>
+      <c r="M22">
+        <v>0.25314</v>
+      </c>
+      <c r="N22">
+        <v>0.47944</v>
+      </c>
+      <c r="O22">
+        <v>1.35966</v>
+      </c>
+      <c r="P22">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q22">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>5.6</v>
+      </c>
+      <c r="G23">
+        <v>8.630775468296321</v>
+      </c>
+      <c r="H23">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>4.9</v>
+      </c>
+      <c r="M23">
+        <v>11.7</v>
+      </c>
+      <c r="N23">
+        <v>14.16</v>
+      </c>
+      <c r="O23">
+        <v>16.78</v>
+      </c>
+      <c r="P23">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q23">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>5.6</v>
+      </c>
+      <c r="G24">
+        <v>8.630775468296321</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>4.9</v>
+      </c>
+      <c r="M24">
+        <v>11.7</v>
+      </c>
+      <c r="N24">
+        <v>14.16</v>
+      </c>
+      <c r="O24">
+        <v>16.78</v>
+      </c>
+      <c r="P24">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q24">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>21.7879274335472</v>
+      </c>
+      <c r="H25">
+        <v>153.6</v>
+      </c>
+      <c r="I25">
+        <v>85.36</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>28.56</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>74.488</v>
+      </c>
+      <c r="P25">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q25">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>21.7879274335472</v>
+      </c>
+      <c r="H26">
+        <v>153.6</v>
+      </c>
+      <c r="I26">
+        <v>85.36</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>28.56</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>74.488</v>
+      </c>
+      <c r="P26">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q26">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>21.7879274335472</v>
+      </c>
+      <c r="H27">
+        <v>153.6</v>
+      </c>
+      <c r="I27">
+        <v>85.36</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>28.56</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>74.488</v>
+      </c>
+      <c r="P27">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q27">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>21.7879274335472</v>
+      </c>
+      <c r="H28">
+        <v>153.6</v>
+      </c>
+      <c r="I28">
+        <v>85.36</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>28.56</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>74.488</v>
+      </c>
+      <c r="P28">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q28">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>0.01549</v>
+      </c>
+      <c r="G29">
+        <v>0.0254087545666655</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>0.06938</v>
+      </c>
+      <c r="L29">
+        <v>0.01747</v>
+      </c>
+      <c r="M29">
+        <v>0.03013</v>
+      </c>
+      <c r="N29">
+        <v>0.03892</v>
+      </c>
+      <c r="O29">
+        <v>0.06279</v>
+      </c>
+      <c r="P29">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q29">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>0.01549</v>
+      </c>
+      <c r="G30">
+        <v>0.0254087545666655</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>0.06938</v>
+      </c>
+      <c r="L30">
+        <v>0.01747</v>
+      </c>
+      <c r="M30">
+        <v>0.03013</v>
+      </c>
+      <c r="N30">
+        <v>0.03892</v>
+      </c>
+      <c r="O30">
+        <v>0.06279</v>
+      </c>
+      <c r="P30">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q30">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <v>0.00099</v>
+      </c>
+      <c r="G31">
+        <v>0.0374200973869646</v>
+      </c>
+      <c r="H31">
+        <v>0.241</v>
+      </c>
+      <c r="I31">
+        <v>0.2074</v>
+      </c>
+      <c r="L31">
+        <v>0.00029</v>
+      </c>
+      <c r="M31">
+        <v>0.07779999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="O31">
+        <v>0.18842</v>
+      </c>
+      <c r="P31">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q31">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" t="s">
+        <v>47</v>
+      </c>
+      <c r="U31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <v>7.98</v>
+      </c>
+      <c r="G32">
+        <v>7.88121212121212</v>
+      </c>
+      <c r="H32">
+        <v>9.09</v>
+      </c>
+      <c r="I32">
+        <v>8.977</v>
+      </c>
+      <c r="L32">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="M32">
+        <v>8.366</v>
+      </c>
+      <c r="N32">
+        <v>8.4412</v>
+      </c>
+      <c r="O32">
+        <v>8.9138</v>
+      </c>
+      <c r="P32">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q32">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>0.835</v>
+      </c>
+      <c r="G33">
+        <v>0.849705882352941</v>
+      </c>
+      <c r="H33">
+        <v>1.08</v>
+      </c>
+      <c r="I33">
+        <v>1.046</v>
+      </c>
+      <c r="L33">
+        <v>0.83</v>
+      </c>
+      <c r="M33">
+        <v>0.93</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33">
+        <v>1.0256</v>
+      </c>
+      <c r="P33">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q33">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>0.835</v>
+      </c>
+      <c r="G34">
+        <v>0.849705882352941</v>
+      </c>
+      <c r="H34">
+        <v>1.08</v>
+      </c>
+      <c r="I34">
+        <v>1.046</v>
+      </c>
+      <c r="L34">
+        <v>0.83</v>
+      </c>
+      <c r="M34">
+        <v>0.93</v>
+      </c>
+      <c r="N34">
+        <v>0.93</v>
+      </c>
+      <c r="O34">
+        <v>1.0256</v>
+      </c>
+      <c r="P34">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q34">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>0.032</v>
+      </c>
+      <c r="G35">
+        <v>0.0332058823529412</v>
+      </c>
+      <c r="H35">
+        <v>0.064</v>
+      </c>
+      <c r="I35">
+        <v>0.0488</v>
+      </c>
+      <c r="L35">
+        <v>0.032</v>
+      </c>
+      <c r="M35">
+        <v>0.0404</v>
+      </c>
+      <c r="N35">
+        <v>0.041</v>
+      </c>
+      <c r="O35">
+        <v>0.04734</v>
+      </c>
+      <c r="P35">
+        <v>1777675.54138</v>
+      </c>
+      <c r="Q35">
+        <v>5573253.04125</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
